--- a/Scrum_Sprint2.xlsx
+++ b/Scrum_Sprint2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lester\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7E844D5-7F25-42CD-96EE-C00BFA081CA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6FAF8C0-E807-45C4-A5A2-A68C76D59938}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="17565" tabRatio="885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27615" windowHeight="17565" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="16" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Fibonnaci</t>
   </si>
@@ -2130,7 +2130,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2738,6 +2738,77 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2795,23 +2866,53 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2852,6 +2953,18 @@
     <xf numFmtId="169" fontId="23" fillId="5" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2862,146 +2975,29 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="169" fontId="23" fillId="5" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="169" fontId="23" fillId="5" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -3027,39 +3023,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8C027"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4060,10 +4024,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4367,25 +4331,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.857142857142854</c:v>
+                  <c:v>32.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.714285714285712</c:v>
+                  <c:v>27.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.571428571428569</c:v>
+                  <c:v>21.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.428571428571427</c:v>
+                  <c:v>16.285714285714278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.285714285714285</c:v>
+                  <c:v>10.857142857142849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1428571428571415</c:v>
+                  <c:v>5.4285714285714199</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4476,10 +4440,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="0">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
@@ -4960,7 +4924,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Database</a:t>
+            <a:t>File Handling</a:t>
           </a:r>
           <a:endParaRPr lang="pt-PT" sz="1600">
             <a:solidFill>
@@ -5542,195 +5506,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>101137</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2232421</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>533137</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Folded Corner 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9229855" y="5205942"/>
-          <a:ext cx="2155496" cy="432000"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:lvl1pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="900" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>STORY # 02 - TASK # 01:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Add Signup in user manual</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>96838</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>241301</xdr:rowOff>
@@ -5915,99 +5690,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>444501</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>94456</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2244501</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1174456</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Folded Corner 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD24FBD-5D94-48C7-9CB6-8CC2053C9B3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="444501" y="5199261"/>
-          <a:ext cx="1800000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>STORY # 04:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1600" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>User Manual</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-PT" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>433190</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>83145</xdr:rowOff>
@@ -6101,15 +5783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>418307</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83145</xdr:rowOff>
+      <xdr:colOff>433190</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2218307</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1163145</xdr:rowOff>
+      <xdr:colOff>2233190</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1178027</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6124,7 +5806,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="418307" y="6452989"/>
+          <a:off x="433190" y="5202832"/>
           <a:ext cx="1800000" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -6168,7 +5850,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>STORY # 05:</a:t>
+            <a:t>STORY # 04:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6195,14 +5877,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>80498</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104710</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2235994</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>536710</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>521827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6217,7 +5899,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3131475" y="6474554"/>
+          <a:off x="3131475" y="5194632"/>
           <a:ext cx="2155496" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
@@ -6353,7 +6035,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>STORY # 02 - TASK # 01:</a:t>
+            <a:t>STORY # 04 - TASK # 01:</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-PT" sz="1100" baseline="0">
@@ -6750,9 +6432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.85546875" defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6816,17 +6498,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
     </row>
     <row r="3" spans="2:11" s="11" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
@@ -6841,7 +6523,7 @@
         <v>TH</v>
       </c>
       <c r="E3" s="116" t="str">
-        <f t="shared" ref="D3:I3" si="0">CHOOSE(WEEKDAY(E5),"S","M","T","W","R","F","S")</f>
+        <f t="shared" ref="E3:I3" si="0">CHOOSE(WEEKDAY(E5),"S","M","T","W","R","F","S")</f>
         <v>F</v>
       </c>
       <c r="F3" s="116" t="str">
@@ -6865,16 +6547,16 @@
       <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="198" t="str">
+      <c r="C4" s="216" t="str">
         <f>CHOOSE(MONTH(E5),"January", "February", "March", "April", "May", "June", "July", "August", "September", "October", "November", "December")</f>
         <v>September</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="200"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
@@ -6911,24 +6593,24 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="222" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="197"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="139">
         <v>1</v>
       </c>
@@ -6956,7 +6638,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J7" s="205"/>
+      <c r="J7" s="223"/>
     </row>
     <row r="8" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
@@ -7162,7 +6844,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J14" s="190">
+      <c r="J14" s="208">
         <f>SUM(J8:J13)</f>
         <v>56</v>
       </c>
@@ -7199,22 +6881,22 @@
         <f>C$16-SUM(C$14:I$14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="191"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="211">
         <v>56</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="23" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
@@ -7231,62 +6913,62 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E7:I13 C14:I15">
-    <cfRule type="expression" dxfId="67" priority="15">
+    <cfRule type="expression" dxfId="63" priority="15">
       <formula>C$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7 D5:I5 D7:I7 E3:I3 E8:I13 C14:I15">
-    <cfRule type="expression" dxfId="66" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="65" priority="38">
+    <cfRule type="expression" dxfId="61" priority="38">
       <formula>C$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="64" priority="37">
+    <cfRule type="expression" dxfId="60" priority="37">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="63" priority="36">
+    <cfRule type="expression" dxfId="59" priority="36">
       <formula>D$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="62" priority="35">
+    <cfRule type="expression" dxfId="58" priority="35">
       <formula>D$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="61" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C13">
-    <cfRule type="expression" dxfId="60" priority="7">
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>C$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C13">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="55" priority="6">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="expression" dxfId="58" priority="5">
+    <cfRule type="expression" dxfId="54" priority="5">
       <formula>D$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="expression" dxfId="57" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>D$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I13">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7324,17 +7006,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
     </row>
     <row r="3" spans="2:11" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
@@ -7349,7 +7031,7 @@
         <v>TH</v>
       </c>
       <c r="E3" s="97" t="str">
-        <f t="shared" ref="D3:I3" si="0">CHOOSE(WEEKDAY(E5),"S","M","T","W","R","F","S")</f>
+        <f t="shared" ref="E3:I3" si="0">CHOOSE(WEEKDAY(E5),"S","M","T","W","R","F","S")</f>
         <v>F</v>
       </c>
       <c r="F3" s="97" t="str">
@@ -7373,16 +7055,16 @@
       <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="206" t="str">
+      <c r="C4" s="224" t="str">
         <f>CHOOSE(MONTH(E5),"January", "February", "March", "April", "May", "June", "July", "August", "September", "October", "November", "December")</f>
         <v>September</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="208"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="226"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
@@ -7419,24 +7101,24 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="201" t="s">
+      <c r="C6" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="204" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="222" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="197"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="139">
         <v>1</v>
       </c>
@@ -7464,7 +7146,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J7" s="205"/>
+      <c r="J7" s="223"/>
     </row>
     <row r="8" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
@@ -7670,7 +7352,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J14" s="190">
+      <c r="J14" s="208">
         <f>SUM(J8:J13)</f>
         <v>33</v>
       </c>
@@ -7707,22 +7389,22 @@
         <f>C$16-SUM(C$14:I$14)</f>
         <v>23</v>
       </c>
-      <c r="J15" s="191"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="211">
         <v>56</v>
       </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="23" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
@@ -7738,62 +7420,62 @@
     <mergeCell ref="C6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="C14:I15 E7:I13">
-    <cfRule type="expression" dxfId="55" priority="21">
+    <cfRule type="expression" dxfId="51" priority="21">
       <formula>C$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7 C14:I15 D5:I5 D7:I7 E3:I3 E8:I13">
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="50" priority="20">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>C$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="52" priority="43">
+    <cfRule type="expression" dxfId="48" priority="43">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="47" priority="42">
       <formula>D$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="46" priority="41">
       <formula>D$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="49" priority="9">
+    <cfRule type="expression" dxfId="45" priority="9">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C13">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="44" priority="7">
       <formula>C$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C13">
-    <cfRule type="expression" dxfId="47" priority="6">
+    <cfRule type="expression" dxfId="43" priority="6">
       <formula>C$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="expression" dxfId="46" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>D$5&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>D$3="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I13">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7817,8 +7499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A4" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7872,36 +7554,36 @@
       </c>
     </row>
     <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="243" t="s">
+      <c r="C3" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="235" t="s">
+      <c r="D3" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="245" t="s">
+      <c r="E3" s="241" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="100">
         <v>7</v>
       </c>
-      <c r="G3" s="237" t="s">
+      <c r="G3" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="239"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="233"/>
     </row>
     <row r="4" spans="2:23" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="234"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="246"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="242"/>
       <c r="F4" s="41" t="s">
         <v>28</v>
       </c>
@@ -7934,39 +7616,39 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="240" t="s">
+      <c r="B5" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="242"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="236"/>
       <c r="F5" s="50">
         <f>F6</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G5" s="42">
         <f>MAX(0, F5-$F$5/$F$3)</f>
-        <v>36.857142857142854</v>
+        <v>32.571428571428569</v>
       </c>
       <c r="H5" s="43">
         <f t="shared" ref="H5:M5" si="2">MAX(0,G5-$F$5/$F$3)</f>
-        <v>30.714285714285712</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="I5" s="43">
         <f t="shared" si="2"/>
-        <v>24.571428571428569</v>
+        <v>21.714285714285708</v>
       </c>
       <c r="J5" s="43">
         <f t="shared" si="2"/>
-        <v>18.428571428571427</v>
+        <v>16.285714285714278</v>
       </c>
       <c r="K5" s="43">
         <f t="shared" si="2"/>
-        <v>12.285714285714285</v>
+        <v>10.857142857142849</v>
       </c>
       <c r="L5" s="43">
         <f t="shared" si="2"/>
-        <v>6.1428571428571415</v>
+        <v>5.4285714285714199</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" si="2"/>
@@ -7974,19 +7656,19 @@
       </c>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="220"/>
+      <c r="C6" s="247"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="248"/>
       <c r="F6" s="51">
         <f>SUM(F7:F30)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6" s="45">
         <f t="shared" ref="G6:M6" si="3">IF(COUNTBLANK(G7:G30)=$F$2,F6,SUM(G7:G30))</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H6" s="46">
         <f t="shared" si="3"/>
@@ -8014,12 +7696,12 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="221" t="s">
+      <c r="B7" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="262"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="256"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="196"/>
       <c r="F7" s="52">
         <v>0</v>
       </c>
@@ -8046,10 +7728,10 @@
       </c>
     </row>
     <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="222"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="256"/>
+      <c r="B8" s="250"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="53">
         <v>0</v>
       </c>
@@ -8076,10 +7758,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="222"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="250"/>
-      <c r="E9" s="256"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="53">
         <v>0</v>
       </c>
@@ -8106,10 +7788,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="222"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="250"/>
-      <c r="E10" s="256"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="196"/>
       <c r="F10" s="53">
         <v>0</v>
       </c>
@@ -8122,10 +7804,10 @@
       <c r="M10" s="21"/>
     </row>
     <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="222"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="256"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="53">
         <v>0</v>
       </c>
@@ -8138,10 +7820,10 @@
       <c r="M11" s="21"/>
     </row>
     <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="223"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="265"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="204"/>
       <c r="F12" s="54">
         <v>0</v>
       </c>
@@ -8163,7 +7845,7 @@
         <v>TH</v>
       </c>
       <c r="S12" s="66" t="str">
-        <f t="shared" ref="R12:W12" si="4">CHOOSE(WEEKDAY(S13),"S","M","T","W","R","F","S")</f>
+        <f t="shared" ref="S12:W12" si="4">CHOOSE(WEEKDAY(S13),"S","M","T","W","R","F","S")</f>
         <v>F</v>
       </c>
       <c r="T12" s="66" t="str">
@@ -8184,13 +7866,13 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="16.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="252" t="s">
+      <c r="C13" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="251" t="s">
+      <c r="D13" s="191" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="105" t="s">
@@ -8221,47 +7903,47 @@
         <v>0</v>
       </c>
       <c r="O13" s="65"/>
-      <c r="P13" s="227" t="s">
+      <c r="P13" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="231">
+      <c r="Q13" s="260">
         <f>G4</f>
         <v>43369</v>
       </c>
-      <c r="R13" s="229">
+      <c r="R13" s="237">
         <f t="shared" ref="R13:W13" si="5">H4</f>
         <v>43370</v>
       </c>
-      <c r="S13" s="229">
+      <c r="S13" s="237">
         <f t="shared" si="5"/>
         <v>43371</v>
       </c>
-      <c r="T13" s="229">
+      <c r="T13" s="237">
         <f t="shared" si="5"/>
         <v>43372</v>
       </c>
-      <c r="U13" s="229">
+      <c r="U13" s="237">
         <f t="shared" si="5"/>
         <v>43373</v>
       </c>
-      <c r="V13" s="229">
+      <c r="V13" s="237">
         <f t="shared" si="5"/>
         <v>43374</v>
       </c>
-      <c r="W13" s="224">
+      <c r="W13" s="252">
         <f t="shared" si="5"/>
         <v>43375</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="222"/>
-      <c r="C14" s="259" t="s">
+      <c r="B14" s="250"/>
+      <c r="C14" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="254" t="s">
+      <c r="D14" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="255" t="s">
+      <c r="E14" s="195" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="53">
@@ -8289,17 +7971,17 @@
         <v>0</v>
       </c>
       <c r="O14" s="65"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="232"/>
-      <c r="R14" s="230"/>
-      <c r="S14" s="230"/>
-      <c r="T14" s="230"/>
-      <c r="U14" s="230"/>
-      <c r="V14" s="230"/>
-      <c r="W14" s="225"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="261"/>
+      <c r="R14" s="238"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="238"/>
+      <c r="U14" s="238"/>
+      <c r="V14" s="238"/>
+      <c r="W14" s="253"/>
     </row>
     <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="222"/>
+      <c r="B15" s="250"/>
       <c r="C15" s="61"/>
       <c r="D15" s="109"/>
       <c r="E15" s="57"/>
@@ -8318,31 +8000,31 @@
       </c>
       <c r="P15" s="68">
         <f>F5</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="69">
         <f t="shared" ref="Q15:W16" si="6">G5</f>
-        <v>36.857142857142854</v>
+        <v>32.571428571428569</v>
       </c>
       <c r="R15" s="70">
         <f t="shared" si="6"/>
-        <v>30.714285714285712</v>
+        <v>27.142857142857139</v>
       </c>
       <c r="S15" s="70">
         <f t="shared" si="6"/>
-        <v>24.571428571428569</v>
+        <v>21.714285714285708</v>
       </c>
       <c r="T15" s="70">
         <f t="shared" si="6"/>
-        <v>18.428571428571427</v>
+        <v>16.285714285714278</v>
       </c>
       <c r="U15" s="70">
         <f t="shared" si="6"/>
-        <v>12.285714285714285</v>
+        <v>10.857142857142849</v>
       </c>
       <c r="V15" s="70">
         <f t="shared" si="6"/>
-        <v>6.1428571428571415</v>
+        <v>5.4285714285714199</v>
       </c>
       <c r="W15" s="71">
         <f t="shared" si="6"/>
@@ -8350,7 +8032,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="223"/>
+      <c r="B16" s="251"/>
       <c r="C16" s="62"/>
       <c r="D16" s="110"/>
       <c r="E16" s="58"/>
@@ -8369,11 +8051,11 @@
       </c>
       <c r="P16" s="73">
         <f>F6</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="74">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R16" s="75">
         <f t="shared" si="6"/>
@@ -8401,16 +8083,16 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="247" t="s">
+      <c r="B17" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="266" t="s">
+      <c r="C17" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="254" t="s">
+      <c r="D17" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="255" t="s">
+      <c r="E17" s="195" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="55">
@@ -8437,47 +8119,47 @@
       <c r="M17" s="103">
         <v>3</v>
       </c>
-      <c r="O17" s="260" t="s">
+      <c r="O17" s="199" t="s">
         <v>44</v>
       </c>
       <c r="P17" s="81">
-        <f>SUM(IF($D$7=$O17,F$7,0),IF($D$8=$O17,F$8,0),IF($D$9=$O17,F$9,0),IF($D$10=$O17,F$10,0),IF($D$11=$O17,F$11,0),IF($D$12=$O17,F$12,0),IF($D$13=$O17,F$13,0),IF($D$14=$O17,F$14,0),IF($D$15=$O17,F$15,0),IF($D$16=$O17,F$16,0),IF($D$17=$O17,F$17,0),IF($D$18=$O17,F$18,0),IF($D$19=$O17,F$19,0),IF($D$20=$O17,F$20,0),IF($D$21=$O17,F$21,0),IF($D$22=$O17,F$22,0),IF($D$23=$O17,F$23,0),IF($D$24=$O17,F$24,0),IF($D$25=$O17,F$25,0),IF($D$26=$O17,F$26,0),IF($D$27=$O17,F$27,0),IF($D$28=$O17,F$28,0),IF($D$29=$O17,F$29,0),IF($D$30=$O17,F$30,0))</f>
+        <f t="shared" ref="P17:W22" si="7">SUM(IF($D$7=$O17,F$7,0),IF($D$8=$O17,F$8,0),IF($D$9=$O17,F$9,0),IF($D$10=$O17,F$10,0),IF($D$11=$O17,F$11,0),IF($D$12=$O17,F$12,0),IF($D$13=$O17,F$13,0),IF($D$14=$O17,F$14,0),IF($D$15=$O17,F$15,0),IF($D$16=$O17,F$16,0),IF($D$17=$O17,F$17,0),IF($D$18=$O17,F$18,0),IF($D$19=$O17,F$19,0),IF($D$20=$O17,F$20,0),IF($D$21=$O17,F$21,0),IF($D$22=$O17,F$22,0),IF($D$23=$O17,F$23,0),IF($D$24=$O17,F$24,0),IF($D$25=$O17,F$25,0),IF($D$26=$O17,F$26,0),IF($D$27=$O17,F$27,0),IF($D$28=$O17,F$28,0),IF($D$29=$O17,F$29,0),IF($D$30=$O17,F$30,0))</f>
         <v>15</v>
       </c>
       <c r="Q17" s="172">
-        <f>SUM(IF($D$7=$O17,G$7,0),IF($D$8=$O17,G$8,0),IF($D$9=$O17,G$9,0),IF($D$10=$O17,G$10,0),IF($D$11=$O17,G$11,0),IF($D$12=$O17,G$12,0),IF($D$13=$O17,G$13,0),IF($D$14=$O17,G$14,0),IF($D$15=$O17,G$15,0),IF($D$16=$O17,G$16,0),IF($D$17=$O17,G$17,0),IF($D$18=$O17,G$18,0),IF($D$19=$O17,G$19,0),IF($D$20=$O17,G$20,0),IF($D$21=$O17,G$21,0),IF($D$22=$O17,G$22,0),IF($D$23=$O17,G$23,0),IF($D$24=$O17,G$24,0),IF($D$25=$O17,G$25,0),IF($D$26=$O17,G$26,0),IF($D$27=$O17,G$27,0),IF($D$28=$O17,G$28,0),IF($D$29=$O17,G$29,0),IF($D$30=$O17,G$30,0))</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R17" s="173">
-        <f>SUM(IF($D$7=$O17,H$7,0),IF($D$8=$O17,H$8,0),IF($D$9=$O17,H$9,0),IF($D$10=$O17,H$10,0),IF($D$11=$O17,H$11,0),IF($D$12=$O17,H$12,0),IF($D$13=$O17,H$13,0),IF($D$14=$O17,H$14,0),IF($D$15=$O17,H$15,0),IF($D$16=$O17,H$16,0),IF($D$17=$O17,H$17,0),IF($D$18=$O17,H$18,0),IF($D$19=$O17,H$19,0),IF($D$20=$O17,H$20,0),IF($D$21=$O17,H$21,0),IF($D$22=$O17,H$22,0),IF($D$23=$O17,H$23,0),IF($D$24=$O17,H$24,0),IF($D$25=$O17,H$25,0),IF($D$26=$O17,H$26,0),IF($D$27=$O17,H$27,0),IF($D$28=$O17,H$28,0),IF($D$29=$O17,H$29,0),IF($D$30=$O17,H$30,0))</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="S17" s="173">
-        <f>SUM(IF($D$7=$O17,I$7,0),IF($D$8=$O17,I$8,0),IF($D$9=$O17,I$9,0),IF($D$10=$O17,I$10,0),IF($D$11=$O17,I$11,0),IF($D$12=$O17,I$12,0),IF($D$13=$O17,I$13,0),IF($D$14=$O17,I$14,0),IF($D$15=$O17,I$15,0),IF($D$16=$O17,I$16,0),IF($D$17=$O17,I$17,0),IF($D$18=$O17,I$18,0),IF($D$19=$O17,I$19,0),IF($D$20=$O17,I$20,0),IF($D$21=$O17,I$21,0),IF($D$22=$O17,I$22,0),IF($D$23=$O17,I$23,0),IF($D$24=$O17,I$24,0),IF($D$25=$O17,I$25,0),IF($D$26=$O17,I$26,0),IF($D$27=$O17,I$27,0),IF($D$28=$O17,I$28,0),IF($D$29=$O17,I$29,0),IF($D$30=$O17,I$30,0))</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="T17" s="173">
-        <f>SUM(IF($D$7=$O17,J$7,0),IF($D$8=$O17,J$8,0),IF($D$9=$O17,J$9,0),IF($D$10=$O17,J$10,0),IF($D$11=$O17,J$11,0),IF($D$12=$O17,J$12,0),IF($D$13=$O17,J$13,0),IF($D$14=$O17,J$14,0),IF($D$15=$O17,J$15,0),IF($D$16=$O17,J$16,0),IF($D$17=$O17,J$17,0),IF($D$18=$O17,J$18,0),IF($D$19=$O17,J$19,0),IF($D$20=$O17,J$20,0),IF($D$21=$O17,J$21,0),IF($D$22=$O17,J$22,0),IF($D$23=$O17,J$23,0),IF($D$24=$O17,J$24,0),IF($D$25=$O17,J$25,0),IF($D$26=$O17,J$26,0),IF($D$27=$O17,J$27,0),IF($D$28=$O17,J$28,0),IF($D$29=$O17,J$29,0),IF($D$30=$O17,J$30,0))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="U17" s="173">
-        <f>SUM(IF($D$7=$O17,K$7,0),IF($D$8=$O17,K$8,0),IF($D$9=$O17,K$9,0),IF($D$10=$O17,K$10,0),IF($D$11=$O17,K$11,0),IF($D$12=$O17,K$12,0),IF($D$13=$O17,K$13,0),IF($D$14=$O17,K$14,0),IF($D$15=$O17,K$15,0),IF($D$16=$O17,K$16,0),IF($D$17=$O17,K$17,0),IF($D$18=$O17,K$18,0),IF($D$19=$O17,K$19,0),IF($D$20=$O17,K$20,0),IF($D$21=$O17,K$21,0),IF($D$22=$O17,K$22,0),IF($D$23=$O17,K$23,0),IF($D$24=$O17,K$24,0),IF($D$25=$O17,K$25,0),IF($D$26=$O17,K$26,0),IF($D$27=$O17,K$27,0),IF($D$28=$O17,K$28,0),IF($D$29=$O17,K$29,0),IF($D$30=$O17,K$30,0))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="V17" s="173">
-        <f>SUM(IF($D$7=$O17,L$7,0),IF($D$8=$O17,L$8,0),IF($D$9=$O17,L$9,0),IF($D$10=$O17,L$10,0),IF($D$11=$O17,L$11,0),IF($D$12=$O17,L$12,0),IF($D$13=$O17,L$13,0),IF($D$14=$O17,L$14,0),IF($D$15=$O17,L$15,0),IF($D$16=$O17,L$16,0),IF($D$17=$O17,L$17,0),IF($D$18=$O17,L$18,0),IF($D$19=$O17,L$19,0),IF($D$20=$O17,L$20,0),IF($D$21=$O17,L$21,0),IF($D$22=$O17,L$22,0),IF($D$23=$O17,L$23,0),IF($D$24=$O17,L$24,0),IF($D$25=$O17,L$25,0),IF($D$26=$O17,L$26,0),IF($D$27=$O17,L$27,0),IF($D$28=$O17,L$28,0),IF($D$29=$O17,L$29,0),IF($D$30=$O17,L$30,0))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="W17" s="174">
-        <f>SUM(IF($D$7=$O17,M$7,0),IF($D$8=$O17,M$8,0),IF($D$9=$O17,M$9,0),IF($D$10=$O17,M$10,0),IF($D$11=$O17,M$11,0),IF($D$12=$O17,M$12,0),IF($D$13=$O17,M$13,0),IF($D$14=$O17,M$14,0),IF($D$15=$O17,M$15,0),IF($D$16=$O17,M$16,0),IF($D$17=$O17,M$17,0),IF($D$18=$O17,M$18,0),IF($D$19=$O17,M$19,0),IF($D$20=$O17,M$20,0),IF($D$21=$O17,M$21,0),IF($D$22=$O17,M$22,0),IF($D$23=$O17,M$23,0),IF($D$24=$O17,M$24,0),IF($D$25=$O17,M$25,0),IF($D$26=$O17,M$26,0),IF($D$27=$O17,M$27,0),IF($D$28=$O17,M$28,0),IF($D$29=$O17,M$29,0),IF($D$30=$O17,M$30,0))</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="248"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="61"/>
-      <c r="D18" s="254"/>
-      <c r="E18" s="255"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="195"/>
       <c r="F18" s="53">
         <v>0</v>
       </c>
@@ -8492,43 +8174,43 @@
         <v>47</v>
       </c>
       <c r="P18" s="78">
-        <f>SUM(IF($D$7=$O18,F$7,0),IF($D$8=$O18,F$8,0),IF($D$9=$O18,F$9,0),IF($D$10=$O18,F$10,0),IF($D$11=$O18,F$11,0),IF($D$12=$O18,F$12,0),IF($D$13=$O18,F$13,0),IF($D$14=$O18,F$14,0),IF($D$15=$O18,F$15,0),IF($D$16=$O18,F$16,0),IF($D$17=$O18,F$17,0),IF($D$18=$O18,F$18,0),IF($D$19=$O18,F$19,0),IF($D$20=$O18,F$20,0),IF($D$21=$O18,F$21,0),IF($D$22=$O18,F$22,0),IF($D$23=$O18,F$23,0),IF($D$24=$O18,F$24,0),IF($D$25=$O18,F$25,0),IF($D$26=$O18,F$26,0),IF($D$27=$O18,F$27,0),IF($D$28=$O18,F$28,0),IF($D$29=$O18,F$29,0),IF($D$30=$O18,F$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="Q18" s="175">
-        <f>SUM(IF($D$7=$O18,G$7,0),IF($D$8=$O18,G$8,0),IF($D$9=$O18,G$9,0),IF($D$10=$O18,G$10,0),IF($D$11=$O18,G$11,0),IF($D$12=$O18,G$12,0),IF($D$13=$O18,G$13,0),IF($D$14=$O18,G$14,0),IF($D$15=$O18,G$15,0),IF($D$16=$O18,G$16,0),IF($D$17=$O18,G$17,0),IF($D$18=$O18,G$18,0),IF($D$19=$O18,G$19,0),IF($D$20=$O18,G$20,0),IF($D$21=$O18,G$21,0),IF($D$22=$O18,G$22,0),IF($D$23=$O18,G$23,0),IF($D$24=$O18,G$24,0),IF($D$25=$O18,G$25,0),IF($D$26=$O18,G$26,0),IF($D$27=$O18,G$27,0),IF($D$28=$O18,G$28,0),IF($D$29=$O18,G$29,0),IF($D$30=$O18,G$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R18" s="176">
-        <f>SUM(IF($D$7=$O18,H$7,0),IF($D$8=$O18,H$8,0),IF($D$9=$O18,H$9,0),IF($D$10=$O18,H$10,0),IF($D$11=$O18,H$11,0),IF($D$12=$O18,H$12,0),IF($D$13=$O18,H$13,0),IF($D$14=$O18,H$14,0),IF($D$15=$O18,H$15,0),IF($D$16=$O18,H$16,0),IF($D$17=$O18,H$17,0),IF($D$18=$O18,H$18,0),IF($D$19=$O18,H$19,0),IF($D$20=$O18,H$20,0),IF($D$21=$O18,H$21,0),IF($D$22=$O18,H$22,0),IF($D$23=$O18,H$23,0),IF($D$24=$O18,H$24,0),IF($D$25=$O18,H$25,0),IF($D$26=$O18,H$26,0),IF($D$27=$O18,H$27,0),IF($D$28=$O18,H$28,0),IF($D$29=$O18,H$29,0),IF($D$30=$O18,H$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="S18" s="176">
-        <f>SUM(IF($D$7=$O18,I$7,0),IF($D$8=$O18,I$8,0),IF($D$9=$O18,I$9,0),IF($D$10=$O18,I$10,0),IF($D$11=$O18,I$11,0),IF($D$12=$O18,I$12,0),IF($D$13=$O18,I$13,0),IF($D$14=$O18,I$14,0),IF($D$15=$O18,I$15,0),IF($D$16=$O18,I$16,0),IF($D$17=$O18,I$17,0),IF($D$18=$O18,I$18,0),IF($D$19=$O18,I$19,0),IF($D$20=$O18,I$20,0),IF($D$21=$O18,I$21,0),IF($D$22=$O18,I$22,0),IF($D$23=$O18,I$23,0),IF($D$24=$O18,I$24,0),IF($D$25=$O18,I$25,0),IF($D$26=$O18,I$26,0),IF($D$27=$O18,I$27,0),IF($D$28=$O18,I$28,0),IF($D$29=$O18,I$29,0),IF($D$30=$O18,I$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="T18" s="176">
-        <f>SUM(IF($D$7=$O18,J$7,0),IF($D$8=$O18,J$8,0),IF($D$9=$O18,J$9,0),IF($D$10=$O18,J$10,0),IF($D$11=$O18,J$11,0),IF($D$12=$O18,J$12,0),IF($D$13=$O18,J$13,0),IF($D$14=$O18,J$14,0),IF($D$15=$O18,J$15,0),IF($D$16=$O18,J$16,0),IF($D$17=$O18,J$17,0),IF($D$18=$O18,J$18,0),IF($D$19=$O18,J$19,0),IF($D$20=$O18,J$20,0),IF($D$21=$O18,J$21,0),IF($D$22=$O18,J$22,0),IF($D$23=$O18,J$23,0),IF($D$24=$O18,J$24,0),IF($D$25=$O18,J$25,0),IF($D$26=$O18,J$26,0),IF($D$27=$O18,J$27,0),IF($D$28=$O18,J$28,0),IF($D$29=$O18,J$29,0),IF($D$30=$O18,J$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="U18" s="176">
-        <f>SUM(IF($D$7=$O18,K$7,0),IF($D$8=$O18,K$8,0),IF($D$9=$O18,K$9,0),IF($D$10=$O18,K$10,0),IF($D$11=$O18,K$11,0),IF($D$12=$O18,K$12,0),IF($D$13=$O18,K$13,0),IF($D$14=$O18,K$14,0),IF($D$15=$O18,K$15,0),IF($D$16=$O18,K$16,0),IF($D$17=$O18,K$17,0),IF($D$18=$O18,K$18,0),IF($D$19=$O18,K$19,0),IF($D$20=$O18,K$20,0),IF($D$21=$O18,K$21,0),IF($D$22=$O18,K$22,0),IF($D$23=$O18,K$23,0),IF($D$24=$O18,K$24,0),IF($D$25=$O18,K$25,0),IF($D$26=$O18,K$26,0),IF($D$27=$O18,K$27,0),IF($D$28=$O18,K$28,0),IF($D$29=$O18,K$29,0),IF($D$30=$O18,K$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V18" s="176">
-        <f>SUM(IF($D$7=$O18,L$7,0),IF($D$8=$O18,L$8,0),IF($D$9=$O18,L$9,0),IF($D$10=$O18,L$10,0),IF($D$11=$O18,L$11,0),IF($D$12=$O18,L$12,0),IF($D$13=$O18,L$13,0),IF($D$14=$O18,L$14,0),IF($D$15=$O18,L$15,0),IF($D$16=$O18,L$16,0),IF($D$17=$O18,L$17,0),IF($D$18=$O18,L$18,0),IF($D$19=$O18,L$19,0),IF($D$20=$O18,L$20,0),IF($D$21=$O18,L$21,0),IF($D$22=$O18,L$22,0),IF($D$23=$O18,L$23,0),IF($D$24=$O18,L$24,0),IF($D$25=$O18,L$25,0),IF($D$26=$O18,L$26,0),IF($D$27=$O18,L$27,0),IF($D$28=$O18,L$28,0),IF($D$29=$O18,L$29,0),IF($D$30=$O18,L$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="W18" s="177">
-        <f>SUM(IF($D$7=$O18,M$7,0),IF($D$8=$O18,M$8,0),IF($D$9=$O18,M$9,0),IF($D$10=$O18,M$10,0),IF($D$11=$O18,M$11,0),IF($D$12=$O18,M$12,0),IF($D$13=$O18,M$13,0),IF($D$14=$O18,M$14,0),IF($D$15=$O18,M$15,0),IF($D$16=$O18,M$16,0),IF($D$17=$O18,M$17,0),IF($D$18=$O18,M$18,0),IF($D$19=$O18,M$19,0),IF($D$20=$O18,M$20,0),IF($D$21=$O18,M$21,0),IF($D$22=$O18,M$22,0),IF($D$23=$O18,M$23,0),IF($D$24=$O18,M$24,0),IF($D$25=$O18,M$25,0),IF($D$26=$O18,M$26,0),IF($D$27=$O18,M$27,0),IF($D$28=$O18,M$28,0),IF($D$29=$O18,M$29,0),IF($D$30=$O18,M$30,0))</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="248"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="61"/>
-      <c r="D19" s="250"/>
-      <c r="E19" s="256"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -8543,40 +8225,40 @@
         <v>45</v>
       </c>
       <c r="P19" s="80">
-        <f>SUM(IF($D$7=$O19,F$7,0),IF($D$8=$O19,F$8,0),IF($D$9=$O19,F$9,0),IF($D$10=$O19,F$10,0),IF($D$11=$O19,F$11,0),IF($D$12=$O19,F$12,0),IF($D$13=$O19,F$13,0),IF($D$14=$O19,F$14,0),IF($D$15=$O19,F$15,0),IF($D$16=$O19,F$16,0),IF($D$17=$O19,F$17,0),IF($D$18=$O19,F$18,0),IF($D$19=$O19,F$19,0),IF($D$20=$O19,F$20,0),IF($D$21=$O19,F$21,0),IF($D$22=$O19,F$22,0),IF($D$23=$O19,F$23,0),IF($D$24=$O19,F$24,0),IF($D$25=$O19,F$25,0),IF($D$26=$O19,F$26,0),IF($D$27=$O19,F$27,0),IF($D$28=$O19,F$28,0),IF($D$29=$O19,F$29,0),IF($D$30=$O19,F$30,0))</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="Q19" s="178">
-        <f>SUM(IF($D$7=$O19,G$7,0),IF($D$8=$O19,G$8,0),IF($D$9=$O19,G$9,0),IF($D$10=$O19,G$10,0),IF($D$11=$O19,G$11,0),IF($D$12=$O19,G$12,0),IF($D$13=$O19,G$13,0),IF($D$14=$O19,G$14,0),IF($D$15=$O19,G$15,0),IF($D$16=$O19,G$16,0),IF($D$17=$O19,G$17,0),IF($D$18=$O19,G$18,0),IF($D$19=$O19,G$19,0),IF($D$20=$O19,G$20,0),IF($D$21=$O19,G$21,0),IF($D$22=$O19,G$22,0),IF($D$23=$O19,G$23,0),IF($D$24=$O19,G$24,0),IF($D$25=$O19,G$25,0),IF($D$26=$O19,G$26,0),IF($D$27=$O19,G$27,0),IF($D$28=$O19,G$28,0),IF($D$29=$O19,G$29,0),IF($D$30=$O19,G$30,0))</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="R19" s="179">
-        <f>SUM(IF($D$7=$O19,H$7,0),IF($D$8=$O19,H$8,0),IF($D$9=$O19,H$9,0),IF($D$10=$O19,H$10,0),IF($D$11=$O19,H$11,0),IF($D$12=$O19,H$12,0),IF($D$13=$O19,H$13,0),IF($D$14=$O19,H$14,0),IF($D$15=$O19,H$15,0),IF($D$16=$O19,H$16,0),IF($D$17=$O19,H$17,0),IF($D$18=$O19,H$18,0),IF($D$19=$O19,H$19,0),IF($D$20=$O19,H$20,0),IF($D$21=$O19,H$21,0),IF($D$22=$O19,H$22,0),IF($D$23=$O19,H$23,0),IF($D$24=$O19,H$24,0),IF($D$25=$O19,H$25,0),IF($D$26=$O19,H$26,0),IF($D$27=$O19,H$27,0),IF($D$28=$O19,H$28,0),IF($D$29=$O19,H$29,0),IF($D$30=$O19,H$30,0))</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="S19" s="179">
-        <f>SUM(IF($D$7=$O19,I$7,0),IF($D$8=$O19,I$8,0),IF($D$9=$O19,I$9,0),IF($D$10=$O19,I$10,0),IF($D$11=$O19,I$11,0),IF($D$12=$O19,I$12,0),IF($D$13=$O19,I$13,0),IF($D$14=$O19,I$14,0),IF($D$15=$O19,I$15,0),IF($D$16=$O19,I$16,0),IF($D$17=$O19,I$17,0),IF($D$18=$O19,I$18,0),IF($D$19=$O19,I$19,0),IF($D$20=$O19,I$20,0),IF($D$21=$O19,I$21,0),IF($D$22=$O19,I$22,0),IF($D$23=$O19,I$23,0),IF($D$24=$O19,I$24,0),IF($D$25=$O19,I$25,0),IF($D$26=$O19,I$26,0),IF($D$27=$O19,I$27,0),IF($D$28=$O19,I$28,0),IF($D$29=$O19,I$29,0),IF($D$30=$O19,I$30,0))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="T19" s="179">
-        <f>SUM(IF($D$7=$O19,J$7,0),IF($D$8=$O19,J$8,0),IF($D$9=$O19,J$9,0),IF($D$10=$O19,J$10,0),IF($D$11=$O19,J$11,0),IF($D$12=$O19,J$12,0),IF($D$13=$O19,J$13,0),IF($D$14=$O19,J$14,0),IF($D$15=$O19,J$15,0),IF($D$16=$O19,J$16,0),IF($D$17=$O19,J$17,0),IF($D$18=$O19,J$18,0),IF($D$19=$O19,J$19,0),IF($D$20=$O19,J$20,0),IF($D$21=$O19,J$21,0),IF($D$22=$O19,J$22,0),IF($D$23=$O19,J$23,0),IF($D$24=$O19,J$24,0),IF($D$25=$O19,J$25,0),IF($D$26=$O19,J$26,0),IF($D$27=$O19,J$27,0),IF($D$28=$O19,J$28,0),IF($D$29=$O19,J$29,0),IF($D$30=$O19,J$30,0))</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="U19" s="179">
-        <f>SUM(IF($D$7=$O19,K$7,0),IF($D$8=$O19,K$8,0),IF($D$9=$O19,K$9,0),IF($D$10=$O19,K$10,0),IF($D$11=$O19,K$11,0),IF($D$12=$O19,K$12,0),IF($D$13=$O19,K$13,0),IF($D$14=$O19,K$14,0),IF($D$15=$O19,K$15,0),IF($D$16=$O19,K$16,0),IF($D$17=$O19,K$17,0),IF($D$18=$O19,K$18,0),IF($D$19=$O19,K$19,0),IF($D$20=$O19,K$20,0),IF($D$21=$O19,K$21,0),IF($D$22=$O19,K$22,0),IF($D$23=$O19,K$23,0),IF($D$24=$O19,K$24,0),IF($D$25=$O19,K$25,0),IF($D$26=$O19,K$26,0),IF($D$27=$O19,K$27,0),IF($D$28=$O19,K$28,0),IF($D$29=$O19,K$29,0),IF($D$30=$O19,K$30,0))</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="V19" s="179">
-        <f>SUM(IF($D$7=$O19,L$7,0),IF($D$8=$O19,L$8,0),IF($D$9=$O19,L$9,0),IF($D$10=$O19,L$10,0),IF($D$11=$O19,L$11,0),IF($D$12=$O19,L$12,0),IF($D$13=$O19,L$13,0),IF($D$14=$O19,L$14,0),IF($D$15=$O19,L$15,0),IF($D$16=$O19,L$16,0),IF($D$17=$O19,L$17,0),IF($D$18=$O19,L$18,0),IF($D$19=$O19,L$19,0),IF($D$20=$O19,L$20,0),IF($D$21=$O19,L$21,0),IF($D$22=$O19,L$22,0),IF($D$23=$O19,L$23,0),IF($D$24=$O19,L$24,0),IF($D$25=$O19,L$25,0),IF($D$26=$O19,L$26,0),IF($D$27=$O19,L$27,0),IF($D$28=$O19,L$28,0),IF($D$29=$O19,L$29,0),IF($D$30=$O19,L$30,0))</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="W19" s="180">
-        <f>SUM(IF($D$7=$O19,M$7,0),IF($D$8=$O19,M$8,0),IF($D$9=$O19,M$9,0),IF($D$10=$O19,M$10,0),IF($D$11=$O19,M$11,0),IF($D$12=$O19,M$12,0),IF($D$13=$O19,M$13,0),IF($D$14=$O19,M$14,0),IF($D$15=$O19,M$15,0),IF($D$16=$O19,M$16,0),IF($D$17=$O19,M$17,0),IF($D$18=$O19,M$18,0),IF($D$19=$O19,M$19,0),IF($D$20=$O19,M$20,0),IF($D$21=$O19,M$21,0),IF($D$22=$O19,M$22,0),IF($D$23=$O19,M$23,0),IF($D$24=$O19,M$24,0),IF($D$25=$O19,M$25,0),IF($D$26=$O19,M$26,0),IF($D$27=$O19,M$27,0),IF($D$28=$O19,M$28,0),IF($D$29=$O19,M$29,0),IF($D$30=$O19,M$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="249"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="62"/>
       <c r="D20" s="110"/>
       <c r="E20" s="58"/>
@@ -8594,113 +8276,113 @@
         <v>49</v>
       </c>
       <c r="P20" s="83">
-        <f>SUM(IF($D$7=$O20,F$7,0),IF($D$8=$O20,F$8,0),IF($D$9=$O20,F$9,0),IF($D$10=$O20,F$10,0),IF($D$11=$O20,F$11,0),IF($D$12=$O20,F$12,0),IF($D$13=$O20,F$13,0),IF($D$14=$O20,F$14,0),IF($D$15=$O20,F$15,0),IF($D$16=$O20,F$16,0),IF($D$17=$O20,F$17,0),IF($D$18=$O20,F$18,0),IF($D$19=$O20,F$19,0),IF($D$20=$O20,F$20,0),IF($D$21=$O20,F$21,0),IF($D$22=$O20,F$22,0),IF($D$23=$O20,F$23,0),IF($D$24=$O20,F$24,0),IF($D$25=$O20,F$25,0),IF($D$26=$O20,F$26,0),IF($D$27=$O20,F$27,0),IF($D$28=$O20,F$28,0),IF($D$29=$O20,F$29,0),IF($D$30=$O20,F$30,0))</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q20" s="181">
-        <f>SUM(IF($D$7=$O20,G$7,0),IF($D$8=$O20,G$8,0),IF($D$9=$O20,G$9,0),IF($D$10=$O20,G$10,0),IF($D$11=$O20,G$11,0),IF($D$12=$O20,G$12,0),IF($D$13=$O20,G$13,0),IF($D$14=$O20,G$14,0),IF($D$15=$O20,G$15,0),IF($D$16=$O20,G$16,0),IF($D$17=$O20,G$17,0),IF($D$18=$O20,G$18,0),IF($D$19=$O20,G$19,0),IF($D$20=$O20,G$20,0),IF($D$21=$O20,G$21,0),IF($D$22=$O20,G$22,0),IF($D$23=$O20,G$23,0),IF($D$24=$O20,G$24,0),IF($D$25=$O20,G$25,0),IF($D$26=$O20,G$26,0),IF($D$27=$O20,G$27,0),IF($D$28=$O20,G$28,0),IF($D$29=$O20,G$29,0),IF($D$30=$O20,G$30,0))</f>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R20" s="182">
-        <f>SUM(IF($D$7=$O20,H$7,0),IF($D$8=$O20,H$8,0),IF($D$9=$O20,H$9,0),IF($D$10=$O20,H$10,0),IF($D$11=$O20,H$11,0),IF($D$12=$O20,H$12,0),IF($D$13=$O20,H$13,0),IF($D$14=$O20,H$14,0),IF($D$15=$O20,H$15,0),IF($D$16=$O20,H$16,0),IF($D$17=$O20,H$17,0),IF($D$18=$O20,H$18,0),IF($D$19=$O20,H$19,0),IF($D$20=$O20,H$20,0),IF($D$21=$O20,H$21,0),IF($D$22=$O20,H$22,0),IF($D$23=$O20,H$23,0),IF($D$24=$O20,H$24,0),IF($D$25=$O20,H$25,0),IF($D$26=$O20,H$26,0),IF($D$27=$O20,H$27,0),IF($D$28=$O20,H$28,0),IF($D$29=$O20,H$29,0),IF($D$30=$O20,H$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S20" s="182">
-        <f>SUM(IF($D$7=$O20,I$7,0),IF($D$8=$O20,I$8,0),IF($D$9=$O20,I$9,0),IF($D$10=$O20,I$10,0),IF($D$11=$O20,I$11,0),IF($D$12=$O20,I$12,0),IF($D$13=$O20,I$13,0),IF($D$14=$O20,I$14,0),IF($D$15=$O20,I$15,0),IF($D$16=$O20,I$16,0),IF($D$17=$O20,I$17,0),IF($D$18=$O20,I$18,0),IF($D$19=$O20,I$19,0),IF($D$20=$O20,I$20,0),IF($D$21=$O20,I$21,0),IF($D$22=$O20,I$22,0),IF($D$23=$O20,I$23,0),IF($D$24=$O20,I$24,0),IF($D$25=$O20,I$25,0),IF($D$26=$O20,I$26,0),IF($D$27=$O20,I$27,0),IF($D$28=$O20,I$28,0),IF($D$29=$O20,I$29,0),IF($D$30=$O20,I$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T20" s="182">
-        <f>SUM(IF($D$7=$O20,J$7,0),IF($D$8=$O20,J$8,0),IF($D$9=$O20,J$9,0),IF($D$10=$O20,J$10,0),IF($D$11=$O20,J$11,0),IF($D$12=$O20,J$12,0),IF($D$13=$O20,J$13,0),IF($D$14=$O20,J$14,0),IF($D$15=$O20,J$15,0),IF($D$16=$O20,J$16,0),IF($D$17=$O20,J$17,0),IF($D$18=$O20,J$18,0),IF($D$19=$O20,J$19,0),IF($D$20=$O20,J$20,0),IF($D$21=$O20,J$21,0),IF($D$22=$O20,J$22,0),IF($D$23=$O20,J$23,0),IF($D$24=$O20,J$24,0),IF($D$25=$O20,J$25,0),IF($D$26=$O20,J$26,0),IF($D$27=$O20,J$27,0),IF($D$28=$O20,J$28,0),IF($D$29=$O20,J$29,0),IF($D$30=$O20,J$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="182">
-        <f>SUM(IF($D$7=$O20,K$7,0),IF($D$8=$O20,K$8,0),IF($D$9=$O20,K$9,0),IF($D$10=$O20,K$10,0),IF($D$11=$O20,K$11,0),IF($D$12=$O20,K$12,0),IF($D$13=$O20,K$13,0),IF($D$14=$O20,K$14,0),IF($D$15=$O20,K$15,0),IF($D$16=$O20,K$16,0),IF($D$17=$O20,K$17,0),IF($D$18=$O20,K$18,0),IF($D$19=$O20,K$19,0),IF($D$20=$O20,K$20,0),IF($D$21=$O20,K$21,0),IF($D$22=$O20,K$22,0),IF($D$23=$O20,K$23,0),IF($D$24=$O20,K$24,0),IF($D$25=$O20,K$25,0),IF($D$26=$O20,K$26,0),IF($D$27=$O20,K$27,0),IF($D$28=$O20,K$28,0),IF($D$29=$O20,K$29,0),IF($D$30=$O20,K$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V20" s="182">
-        <f>SUM(IF($D$7=$O20,L$7,0),IF($D$8=$O20,L$8,0),IF($D$9=$O20,L$9,0),IF($D$10=$O20,L$10,0),IF($D$11=$O20,L$11,0),IF($D$12=$O20,L$12,0),IF($D$13=$O20,L$13,0),IF($D$14=$O20,L$14,0),IF($D$15=$O20,L$15,0),IF($D$16=$O20,L$16,0),IF($D$17=$O20,L$17,0),IF($D$18=$O20,L$18,0),IF($D$19=$O20,L$19,0),IF($D$20=$O20,L$20,0),IF($D$21=$O20,L$21,0),IF($D$22=$O20,L$22,0),IF($D$23=$O20,L$23,0),IF($D$24=$O20,L$24,0),IF($D$25=$O20,L$25,0),IF($D$26=$O20,L$26,0),IF($D$27=$O20,L$27,0),IF($D$28=$O20,L$28,0),IF($D$29=$O20,L$29,0),IF($D$30=$O20,L$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W20" s="183">
-        <f>SUM(IF($D$7=$O20,M$7,0),IF($D$8=$O20,M$8,0),IF($D$9=$O20,M$9,0),IF($D$10=$O20,M$10,0),IF($D$11=$O20,M$11,0),IF($D$12=$O20,M$12,0),IF($D$13=$O20,M$13,0),IF($D$14=$O20,M$14,0),IF($D$15=$O20,M$15,0),IF($D$16=$O20,M$16,0),IF($D$17=$O20,M$17,0),IF($D$18=$O20,M$18,0),IF($D$19=$O20,M$19,0),IF($D$20=$O20,M$20,0),IF($D$21=$O20,M$21,0),IF($D$22=$O20,M$22,0),IF($D$23=$O20,M$23,0),IF($D$24=$O20,M$24,0),IF($D$25=$O20,M$25,0),IF($D$26=$O20,M$26,0),IF($D$27=$O20,M$27,0),IF($D$28=$O20,M$28,0),IF($D$29=$O20,M$29,0),IF($D$30=$O20,M$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="247" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="252" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="251" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="258" t="s">
-        <v>42</v>
+      <c r="B21" s="254" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="194" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="195" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="106">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G21" s="35">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H21" s="36">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I21" s="36">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J21" s="36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K21" s="36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L21" s="36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M21" s="37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O21" s="85" t="s">
         <v>27</v>
       </c>
       <c r="P21" s="86">
-        <f>SUM(IF($D$7=$O21,F$7,0),IF($D$8=$O21,F$8,0),IF($D$9=$O21,F$9,0),IF($D$10=$O21,F$10,0),IF($D$11=$O21,F$11,0),IF($D$12=$O21,F$12,0),IF($D$13=$O21,F$13,0),IF($D$14=$O21,F$14,0),IF($D$15=$O21,F$15,0),IF($D$16=$O21,F$16,0),IF($D$17=$O21,F$17,0),IF($D$18=$O21,F$18,0),IF($D$19=$O21,F$19,0),IF($D$20=$O21,F$20,0),IF($D$21=$O21,F$21,0),IF($D$22=$O21,F$22,0),IF($D$23=$O21,F$23,0),IF($D$24=$O21,F$24,0),IF($D$25=$O21,F$25,0),IF($D$26=$O21,F$26,0),IF($D$27=$O21,F$27,0),IF($D$28=$O21,F$28,0),IF($D$29=$O21,F$29,0),IF($D$30=$O21,F$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q21" s="184">
-        <f>SUM(IF($D$7=$O21,G$7,0),IF($D$8=$O21,G$8,0),IF($D$9=$O21,G$9,0),IF($D$10=$O21,G$10,0),IF($D$11=$O21,G$11,0),IF($D$12=$O21,G$12,0),IF($D$13=$O21,G$13,0),IF($D$14=$O21,G$14,0),IF($D$15=$O21,G$15,0),IF($D$16=$O21,G$16,0),IF($D$17=$O21,G$17,0),IF($D$18=$O21,G$18,0),IF($D$19=$O21,G$19,0),IF($D$20=$O21,G$20,0),IF($D$21=$O21,G$21,0),IF($D$22=$O21,G$22,0),IF($D$23=$O21,G$23,0),IF($D$24=$O21,G$24,0),IF($D$25=$O21,G$25,0),IF($D$26=$O21,G$26,0),IF($D$27=$O21,G$27,0),IF($D$28=$O21,G$28,0),IF($D$29=$O21,G$29,0),IF($D$30=$O21,G$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R21" s="185">
-        <f>SUM(IF($D$7=$O21,H$7,0),IF($D$8=$O21,H$8,0),IF($D$9=$O21,H$9,0),IF($D$10=$O21,H$10,0),IF($D$11=$O21,H$11,0),IF($D$12=$O21,H$12,0),IF($D$13=$O21,H$13,0),IF($D$14=$O21,H$14,0),IF($D$15=$O21,H$15,0),IF($D$16=$O21,H$16,0),IF($D$17=$O21,H$17,0),IF($D$18=$O21,H$18,0),IF($D$19=$O21,H$19,0),IF($D$20=$O21,H$20,0),IF($D$21=$O21,H$21,0),IF($D$22=$O21,H$22,0),IF($D$23=$O21,H$23,0),IF($D$24=$O21,H$24,0),IF($D$25=$O21,H$25,0),IF($D$26=$O21,H$26,0),IF($D$27=$O21,H$27,0),IF($D$28=$O21,H$28,0),IF($D$29=$O21,H$29,0),IF($D$30=$O21,H$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S21" s="185">
-        <f>SUM(IF($D$7=$O21,I$7,0),IF($D$8=$O21,I$8,0),IF($D$9=$O21,I$9,0),IF($D$10=$O21,I$10,0),IF($D$11=$O21,I$11,0),IF($D$12=$O21,I$12,0),IF($D$13=$O21,I$13,0),IF($D$14=$O21,I$14,0),IF($D$15=$O21,I$15,0),IF($D$16=$O21,I$16,0),IF($D$17=$O21,I$17,0),IF($D$18=$O21,I$18,0),IF($D$19=$O21,I$19,0),IF($D$20=$O21,I$20,0),IF($D$21=$O21,I$21,0),IF($D$22=$O21,I$22,0),IF($D$23=$O21,I$23,0),IF($D$24=$O21,I$24,0),IF($D$25=$O21,I$25,0),IF($D$26=$O21,I$26,0),IF($D$27=$O21,I$27,0),IF($D$28=$O21,I$28,0),IF($D$29=$O21,I$29,0),IF($D$30=$O21,I$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T21" s="185">
-        <f>SUM(IF($D$7=$O21,J$7,0),IF($D$8=$O21,J$8,0),IF($D$9=$O21,J$9,0),IF($D$10=$O21,J$10,0),IF($D$11=$O21,J$11,0),IF($D$12=$O21,J$12,0),IF($D$13=$O21,J$13,0),IF($D$14=$O21,J$14,0),IF($D$15=$O21,J$15,0),IF($D$16=$O21,J$16,0),IF($D$17=$O21,J$17,0),IF($D$18=$O21,J$18,0),IF($D$19=$O21,J$19,0),IF($D$20=$O21,J$20,0),IF($D$21=$O21,J$21,0),IF($D$22=$O21,J$22,0),IF($D$23=$O21,J$23,0),IF($D$24=$O21,J$24,0),IF($D$25=$O21,J$25,0),IF($D$26=$O21,J$26,0),IF($D$27=$O21,J$27,0),IF($D$28=$O21,J$28,0),IF($D$29=$O21,J$29,0),IF($D$30=$O21,J$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="185">
-        <f>SUM(IF($D$7=$O21,K$7,0),IF($D$8=$O21,K$8,0),IF($D$9=$O21,K$9,0),IF($D$10=$O21,K$10,0),IF($D$11=$O21,K$11,0),IF($D$12=$O21,K$12,0),IF($D$13=$O21,K$13,0),IF($D$14=$O21,K$14,0),IF($D$15=$O21,K$15,0),IF($D$16=$O21,K$16,0),IF($D$17=$O21,K$17,0),IF($D$18=$O21,K$18,0),IF($D$19=$O21,K$19,0),IF($D$20=$O21,K$20,0),IF($D$21=$O21,K$21,0),IF($D$22=$O21,K$22,0),IF($D$23=$O21,K$23,0),IF($D$24=$O21,K$24,0),IF($D$25=$O21,K$25,0),IF($D$26=$O21,K$26,0),IF($D$27=$O21,K$27,0),IF($D$28=$O21,K$28,0),IF($D$29=$O21,K$29,0),IF($D$30=$O21,K$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V21" s="185">
-        <f>SUM(IF($D$7=$O21,L$7,0),IF($D$8=$O21,L$8,0),IF($D$9=$O21,L$9,0),IF($D$10=$O21,L$10,0),IF($D$11=$O21,L$11,0),IF($D$12=$O21,L$12,0),IF($D$13=$O21,L$13,0),IF($D$14=$O21,L$14,0),IF($D$15=$O21,L$15,0),IF($D$16=$O21,L$16,0),IF($D$17=$O21,L$17,0),IF($D$18=$O21,L$18,0),IF($D$19=$O21,L$19,0),IF($D$20=$O21,L$20,0),IF($D$21=$O21,L$21,0),IF($D$22=$O21,L$22,0),IF($D$23=$O21,L$23,0),IF($D$24=$O21,L$24,0),IF($D$25=$O21,L$25,0),IF($D$26=$O21,L$26,0),IF($D$27=$O21,L$27,0),IF($D$28=$O21,L$28,0),IF($D$29=$O21,L$29,0),IF($D$30=$O21,L$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="186">
-        <f>SUM(IF($D$7=$O21,M$7,0),IF($D$8=$O21,M$8,0),IF($D$9=$O21,M$9,0),IF($D$10=$O21,M$10,0),IF($D$11=$O21,M$11,0),IF($D$12=$O21,M$12,0),IF($D$13=$O21,M$13,0),IF($D$14=$O21,M$14,0),IF($D$15=$O21,M$15,0),IF($D$16=$O21,M$16,0),IF($D$17=$O21,M$17,0),IF($D$18=$O21,M$18,0),IF($D$19=$O21,M$19,0),IF($D$20=$O21,M$20,0),IF($D$21=$O21,M$21,0),IF($D$22=$O21,M$22,0),IF($D$23=$O21,M$23,0),IF($D$24=$O21,M$24,0),IF($D$25=$O21,M$25,0),IF($D$26=$O21,M$26,0),IF($D$27=$O21,M$27,0),IF($D$28=$O21,M$28,0),IF($D$29=$O21,M$29,0),IF($D$30=$O21,M$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="248"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="61"/>
       <c r="D22" s="109"/>
       <c r="E22" s="57"/>
@@ -8716,40 +8398,40 @@
         <v>46</v>
       </c>
       <c r="P22" s="88">
-        <f>SUM(IF($D$7=$O22,F$7,0),IF($D$8=$O22,F$8,0),IF($D$9=$O22,F$9,0),IF($D$10=$O22,F$10,0),IF($D$11=$O22,F$11,0),IF($D$12=$O22,F$12,0),IF($D$13=$O22,F$13,0),IF($D$14=$O22,F$14,0),IF($D$15=$O22,F$15,0),IF($D$16=$O22,F$16,0),IF($D$17=$O22,F$17,0),IF($D$18=$O22,F$18,0),IF($D$19=$O22,F$19,0),IF($D$20=$O22,F$20,0),IF($D$21=$O22,F$21,0),IF($D$22=$O22,F$22,0),IF($D$23=$O22,F$23,0),IF($D$24=$O22,F$24,0),IF($D$25=$O22,F$25,0),IF($D$26=$O22,F$26,0),IF($D$27=$O22,F$27,0),IF($D$28=$O22,F$28,0),IF($D$29=$O22,F$29,0),IF($D$30=$O22,F$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q22" s="187">
-        <f>SUM(IF($D$7=$O22,G$7,0),IF($D$8=$O22,G$8,0),IF($D$9=$O22,G$9,0),IF($D$10=$O22,G$10,0),IF($D$11=$O22,G$11,0),IF($D$12=$O22,G$12,0),IF($D$13=$O22,G$13,0),IF($D$14=$O22,G$14,0),IF($D$15=$O22,G$15,0),IF($D$16=$O22,G$16,0),IF($D$17=$O22,G$17,0),IF($D$18=$O22,G$18,0),IF($D$19=$O22,G$19,0),IF($D$20=$O22,G$20,0),IF($D$21=$O22,G$21,0),IF($D$22=$O22,G$22,0),IF($D$23=$O22,G$23,0),IF($D$24=$O22,G$24,0),IF($D$25=$O22,G$25,0),IF($D$26=$O22,G$26,0),IF($D$27=$O22,G$27,0),IF($D$28=$O22,G$28,0),IF($D$29=$O22,G$29,0),IF($D$30=$O22,G$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R22" s="188">
-        <f>SUM(IF($D$7=$O22,H$7,0),IF($D$8=$O22,H$8,0),IF($D$9=$O22,H$9,0),IF($D$10=$O22,H$10,0),IF($D$11=$O22,H$11,0),IF($D$12=$O22,H$12,0),IF($D$13=$O22,H$13,0),IF($D$14=$O22,H$14,0),IF($D$15=$O22,H$15,0),IF($D$16=$O22,H$16,0),IF($D$17=$O22,H$17,0),IF($D$18=$O22,H$18,0),IF($D$19=$O22,H$19,0),IF($D$20=$O22,H$20,0),IF($D$21=$O22,H$21,0),IF($D$22=$O22,H$22,0),IF($D$23=$O22,H$23,0),IF($D$24=$O22,H$24,0),IF($D$25=$O22,H$25,0),IF($D$26=$O22,H$26,0),IF($D$27=$O22,H$27,0),IF($D$28=$O22,H$28,0),IF($D$29=$O22,H$29,0),IF($D$30=$O22,H$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S22" s="188">
-        <f>SUM(IF($D$7=$O22,I$7,0),IF($D$8=$O22,I$8,0),IF($D$9=$O22,I$9,0),IF($D$10=$O22,I$10,0),IF($D$11=$O22,I$11,0),IF($D$12=$O22,I$12,0),IF($D$13=$O22,I$13,0),IF($D$14=$O22,I$14,0),IF($D$15=$O22,I$15,0),IF($D$16=$O22,I$16,0),IF($D$17=$O22,I$17,0),IF($D$18=$O22,I$18,0),IF($D$19=$O22,I$19,0),IF($D$20=$O22,I$20,0),IF($D$21=$O22,I$21,0),IF($D$22=$O22,I$22,0),IF($D$23=$O22,I$23,0),IF($D$24=$O22,I$24,0),IF($D$25=$O22,I$25,0),IF($D$26=$O22,I$26,0),IF($D$27=$O22,I$27,0),IF($D$28=$O22,I$28,0),IF($D$29=$O22,I$29,0),IF($D$30=$O22,I$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T22" s="188">
-        <f>SUM(IF($D$7=$O22,J$7,0),IF($D$8=$O22,J$8,0),IF($D$9=$O22,J$9,0),IF($D$10=$O22,J$10,0),IF($D$11=$O22,J$11,0),IF($D$12=$O22,J$12,0),IF($D$13=$O22,J$13,0),IF($D$14=$O22,J$14,0),IF($D$15=$O22,J$15,0),IF($D$16=$O22,J$16,0),IF($D$17=$O22,J$17,0),IF($D$18=$O22,J$18,0),IF($D$19=$O22,J$19,0),IF($D$20=$O22,J$20,0),IF($D$21=$O22,J$21,0),IF($D$22=$O22,J$22,0),IF($D$23=$O22,J$23,0),IF($D$24=$O22,J$24,0),IF($D$25=$O22,J$25,0),IF($D$26=$O22,J$26,0),IF($D$27=$O22,J$27,0),IF($D$28=$O22,J$28,0),IF($D$29=$O22,J$29,0),IF($D$30=$O22,J$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U22" s="188">
-        <f>SUM(IF($D$7=$O22,K$7,0),IF($D$8=$O22,K$8,0),IF($D$9=$O22,K$9,0),IF($D$10=$O22,K$10,0),IF($D$11=$O22,K$11,0),IF($D$12=$O22,K$12,0),IF($D$13=$O22,K$13,0),IF($D$14=$O22,K$14,0),IF($D$15=$O22,K$15,0),IF($D$16=$O22,K$16,0),IF($D$17=$O22,K$17,0),IF($D$18=$O22,K$18,0),IF($D$19=$O22,K$19,0),IF($D$20=$O22,K$20,0),IF($D$21=$O22,K$21,0),IF($D$22=$O22,K$22,0),IF($D$23=$O22,K$23,0),IF($D$24=$O22,K$24,0),IF($D$25=$O22,K$25,0),IF($D$26=$O22,K$26,0),IF($D$27=$O22,K$27,0),IF($D$28=$O22,K$28,0),IF($D$29=$O22,K$29,0),IF($D$30=$O22,K$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V22" s="188">
-        <f>SUM(IF($D$7=$O22,L$7,0),IF($D$8=$O22,L$8,0),IF($D$9=$O22,L$9,0),IF($D$10=$O22,L$10,0),IF($D$11=$O22,L$11,0),IF($D$12=$O22,L$12,0),IF($D$13=$O22,L$13,0),IF($D$14=$O22,L$14,0),IF($D$15=$O22,L$15,0),IF($D$16=$O22,L$16,0),IF($D$17=$O22,L$17,0),IF($D$18=$O22,L$18,0),IF($D$19=$O22,L$19,0),IF($D$20=$O22,L$20,0),IF($D$21=$O22,L$21,0),IF($D$22=$O22,L$22,0),IF($D$23=$O22,L$23,0),IF($D$24=$O22,L$24,0),IF($D$25=$O22,L$25,0),IF($D$26=$O22,L$26,0),IF($D$27=$O22,L$27,0),IF($D$28=$O22,L$28,0),IF($D$29=$O22,L$29,0),IF($D$30=$O22,L$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W22" s="189">
-        <f>SUM(IF($D$7=$O22,M$7,0),IF($D$8=$O22,M$8,0),IF($D$9=$O22,M$9,0),IF($D$10=$O22,M$10,0),IF($D$11=$O22,M$11,0),IF($D$12=$O22,M$12,0),IF($D$13=$O22,M$13,0),IF($D$14=$O22,M$14,0),IF($D$15=$O22,M$15,0),IF($D$16=$O22,M$16,0),IF($D$17=$O22,M$17,0),IF($D$18=$O22,M$18,0),IF($D$19=$O22,M$19,0),IF($D$20=$O22,M$20,0),IF($D$21=$O22,M$21,0),IF($D$22=$O22,M$22,0),IF($D$23=$O22,M$23,0),IF($D$24=$O22,M$24,0),IF($D$25=$O22,M$25,0),IF($D$26=$O22,M$26,0),IF($D$27=$O22,M$27,0),IF($D$28=$O22,M$28,0),IF($D$29=$O22,M$29,0),IF($D$30=$O22,M$30,0))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="249"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="62"/>
       <c r="D23" s="110"/>
       <c r="E23" s="58"/>
@@ -8763,45 +8445,21 @@
       <c r="M23" s="26"/>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="247" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="259" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="254" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="255" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="55">
-        <v>15</v>
-      </c>
-      <c r="G24" s="101">
-        <v>14</v>
-      </c>
-      <c r="H24" s="102">
-        <v>13</v>
-      </c>
-      <c r="I24" s="102">
-        <v>13</v>
-      </c>
-      <c r="J24" s="102">
-        <v>12</v>
-      </c>
-      <c r="K24" s="102">
-        <v>12</v>
-      </c>
-      <c r="L24" s="102">
-        <v>12</v>
-      </c>
-      <c r="M24" s="103">
-        <v>12</v>
-      </c>
+      <c r="B24" s="254"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="248"/>
+      <c r="B25" s="255"/>
       <c r="C25" s="61"/>
       <c r="D25" s="109"/>
       <c r="E25" s="57"/>
@@ -8815,7 +8473,7 @@
       <c r="M25" s="21"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="249"/>
+      <c r="B26" s="256"/>
       <c r="C26" s="62"/>
       <c r="D26" s="110"/>
       <c r="E26" s="58"/>
@@ -8829,7 +8487,7 @@
       <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="215"/>
+      <c r="B27" s="243"/>
       <c r="C27" s="104"/>
       <c r="D27" s="111"/>
       <c r="E27" s="105"/>
@@ -8843,7 +8501,7 @@
       <c r="M27" s="37"/>
     </row>
     <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="216"/>
+      <c r="B28" s="244"/>
       <c r="C28" s="62"/>
       <c r="D28" s="110"/>
       <c r="E28" s="58"/>
@@ -8857,7 +8515,7 @@
       <c r="M28" s="26"/>
     </row>
     <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="215"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="63"/>
       <c r="D29" s="112"/>
       <c r="E29" s="59"/>
@@ -8871,7 +8529,7 @@
       <c r="M29" s="103"/>
     </row>
     <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="217"/>
+      <c r="B30" s="245"/>
       <c r="C30" s="64"/>
       <c r="D30" s="113"/>
       <c r="E30" s="60"/>
@@ -8890,35 +8548,35 @@
       <c r="D31" s="114"/>
       <c r="E31" s="49"/>
       <c r="F31" s="48" t="str">
-        <f t="shared" ref="F31:M31" si="7">IF(SUM(F7:F30)=F6,"",IF(SUM(F7:F30)=0,"","ERR"))</f>
+        <f t="shared" ref="F31:M31" si="8">IF(SUM(F7:F30)=F6,"",IF(SUM(F7:F30)=0,"","ERR"))</f>
         <v/>
       </c>
       <c r="G31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M31" s="48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -8927,13 +8585,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B6:E6"/>
@@ -8949,20 +8600,27 @@
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="R13:R14"/>
     <mergeCell ref="T13:T14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:M30">
-    <cfRule type="expression" dxfId="43" priority="3">
+    <cfRule type="expression" dxfId="39" priority="3">
       <formula>G$2="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>G$4&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:W22">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>Q$13="S"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>Q$13&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9021,21 +8679,21 @@
   <sheetData>
     <row r="1" spans="2:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="214"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="267"/>
     </row>
     <row r="3" spans="2:7" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="264"/>
     </row>
     <row r="5" spans="2:7" s="143" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="145" t="s">
@@ -9059,7 +8717,7 @@
       <c r="C6" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="268" t="s">
+      <c r="D6" s="207" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="155"/>
@@ -9071,43 +8729,43 @@
       <c r="C7" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="267" t="s">
+      <c r="D7" s="206" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="152"/>
     </row>
     <row r="8" spans="2:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="200" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="267" t="s">
+      <c r="D8" s="206" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="152"/>
     </row>
     <row r="9" spans="2:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="200" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="267" t="s">
+      <c r="D9" s="206" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="152"/>
     </row>
     <row r="10" spans="2:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="261" t="s">
+      <c r="B10" s="200" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="267" t="s">
+      <c r="D10" s="206" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="152"/>
@@ -9183,86 +8841,86 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:E6 E7 C6:C7 C9:C11 C13:C20">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="33" priority="47">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 D8">
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="30" priority="38">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B20 D9:D20">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$B9="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$B9="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$B9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="19" priority="61">
+    <cfRule type="expression" dxfId="15" priority="61">
       <formula>$B12="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="62">
+    <cfRule type="expression" dxfId="14" priority="62">
       <formula>$B12="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="63">
+    <cfRule type="expression" dxfId="13" priority="63">
       <formula>$B12="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="64">
+    <cfRule type="expression" dxfId="12" priority="64">
       <formula>$B12="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9386,7 +9044,7 @@
       <c r="B3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="197" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="92" t="s">
@@ -9414,7 +9072,7 @@
       <c r="B5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="197" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="92"/>
@@ -9438,7 +9096,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="91"/>
-      <c r="C7" s="253" t="s">
+      <c r="C7" s="193" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="92"/>
